--- a/módulo 08/aula-soma-se.xlsx
+++ b/módulo 08/aula-soma-se.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\10 Fórmulas avançadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso Excel do básico ao avançado\módulo 08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDados" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BaseDados!$A$1:$G$2001</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8029" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8031" uniqueCount="24">
   <si>
     <t>DATA</t>
   </si>
@@ -108,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -210,12 +210,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -227,10 +227,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -279,24 +276,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -515,7 +525,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -544,6 +556,18 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -854,7 +878,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -881,8 +907,20 @@
             <c:numRef>
               <c:f>Soma.se!$D$7:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1193,7 +1231,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1222,6 +1262,18 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1532,7 +1584,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1559,8 +1613,20 @@
             <c:numRef>
               <c:f>Soma.ses!$D$7:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8092</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3921,7 +3987,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DE7AE82-51F5-4D16-9E60-3E19A02134FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE7AE82-51F5-4D16-9E60-3E19A02134FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,7 +4023,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67DA07C8-8B10-478B-BE85-D361FA1DBDFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DA07C8-8B10-478B-BE85-D361FA1DBDFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,20 +4051,20 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>666748</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>702448</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118723</xdr:rowOff>
+      <xdr:rowOff>90148</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2744A8D-CC91-4B6C-AF46-EA705EAD053E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2744A8D-CC91-4B6C-AF46-EA705EAD053E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4036,7 +4102,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9952DB90-5107-4E0C-824E-1832D2AB9F31}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9952DB90-5107-4E0C-824E-1832D2AB9F31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4057,6 +4123,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G2001" totalsRowShown="0">
+  <autoFilter ref="A1:G2001"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" name="LOJA"/>
+    <tableColumn id="3" name="CATEGORIA"/>
+    <tableColumn id="4" name="GÊNERO"/>
+    <tableColumn id="5" name="VOLUME" dataDxfId="1"/>
+    <tableColumn id="6" name="VALOR" dataDxfId="0"/>
+    <tableColumn id="7" name="FORMA DE PAGAMENTO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4361,7 +4443,9 @@
   </sheetPr>
   <dimension ref="A1:H2001"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4371,13 +4455,13 @@
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="5" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -50405,6 +50489,9 @@
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -50418,92 +50505,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="13" customWidth="1"/>
-    <col min="2" max="13" width="14.7109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="5.7109375" style="13" hidden="1"/>
+    <col min="1" max="1" width="5.7109375" style="12" customWidth="1"/>
+    <col min="2" max="13" width="14.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="5.7109375" style="12" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="20">
+        <f>SUMIF(Tabela3[LOJA],B7,Tabela3[VOLUME])</f>
+        <v>7558</v>
+      </c>
+      <c r="D7" s="25">
+        <f>SUMIF(Tabela3[LOJA],B7,Tabela3[VALOR])</f>
+        <v>77069</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21">
+        <f>SUMIF(Tabela3[LOJA],B8,Tabela3[VOLUME])</f>
+        <v>8494</v>
+      </c>
+      <c r="D8" s="26">
+        <f>SUMIF(Tabela3[LOJA],B8,Tabela3[VALOR])</f>
+        <v>84906</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21">
+        <f>SUMIF(Tabela3[LOJA],B9,Tabela3[VOLUME])</f>
+        <v>7837</v>
+      </c>
+      <c r="D9" s="26">
+        <f>SUMIF(Tabela3[LOJA],B9,Tabela3[VALOR])</f>
+        <v>81247</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22">
+        <f>SUMIF(Tabela3[LOJA],B10,Tabela3[VOLUME])</f>
+        <v>7515</v>
+      </c>
+      <c r="D10" s="27">
+        <f>SUMIF(Tabela3[LOJA],B10,Tabela3[VALOR])</f>
+        <v>77743</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -50511,112 +50623,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="13" customWidth="1"/>
-    <col min="2" max="13" width="14.7109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="5.7109375" style="13" hidden="1"/>
+    <col min="1" max="1" width="5.7109375" style="12" customWidth="1"/>
+    <col min="2" max="13" width="14.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="5.7109375" style="12" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="20">
+        <f>SUMIFS(Tabela3[VOLUME],Tabela3[LOJA],B7,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>744</v>
+      </c>
+      <c r="D7" s="25">
+        <f>SUMIFS(Tabela3[VALOR],Tabela3[LOJA],B7,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>7597</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21">
+        <f>SUMIFS(Tabela3[VOLUME],Tabela3[LOJA],B8,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>785</v>
+      </c>
+      <c r="D8" s="26">
+        <f>SUMIFS(Tabela3[VALOR],Tabela3[LOJA],B8,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>8040</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21">
+        <f>SUMIFS(Tabela3[VOLUME],Tabela3[LOJA],B9,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>1051</v>
+      </c>
+      <c r="D9" s="26">
+        <f>SUMIFS(Tabela3[VALOR],Tabela3[LOJA],B9,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>9798</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22">
+        <f>SUMIFS(Tabela3[VOLUME],Tabela3[LOJA],B10,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>725</v>
+      </c>
+      <c r="D10" s="27">
+        <f>SUMIFS(Tabela3[VALOR],Tabela3[LOJA],B10,Tabela3[CATEGORIA],$C$12,Tabela3[GÊNERO],$C$13)</f>
+        <v>8092</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="24"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15"/>
@@ -50631,12 +50771,16 @@
       <c r="C18"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
       <formula1>"Comidas e bebidas,Cosméticos e higiene pessoal,Utilidades domésticas,Roupas e acessórios"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>"Masculino,Feminino"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/módulo 08/aula-soma-se.xlsx
+++ b/módulo 08/aula-soma-se.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8031" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8051" uniqueCount="44">
   <si>
     <t>DATA</t>
   </si>
@@ -102,6 +102,66 @@
   <si>
     <t>VENDAS POR LOJA POR CATEGORIA E GÊNERO</t>
   </si>
+  <si>
+    <t>Soma.se</t>
+  </si>
+  <si>
+    <t>Tem o objetivo de somar valores de uma fonte de dados,</t>
+  </si>
+  <si>
+    <t>baseada em uma condição aplicada a outra fonte de dados</t>
+  </si>
+  <si>
+    <t>equivalente. Disponível em "formulas", item "matemática e"</t>
+  </si>
+  <si>
+    <t>trigonometria: SomaSe(intervalo;critérios;intervalo_soma)</t>
+  </si>
+  <si>
+    <t>de acordo com as especificações anteriores</t>
+  </si>
+  <si>
+    <t>intervalo é o onde o critério será aplicado, o critério</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é a restrição para o intervalo e o último dado é o intervalo que será somado </t>
+  </si>
+  <si>
+    <t>Fórmula =SOMASE(Tabela3[LOJA];B7;Tabela3[VOLUME])</t>
+  </si>
+  <si>
+    <t>Esta função soma o volume das lojas que estão escritas na célula</t>
+  </si>
+  <si>
+    <t>B7 que no exemplo é Araguari. Para inserir outros métodos de comparaçã</t>
+  </si>
+  <si>
+    <t>basta inserir o operador entre aspas e inserir o &amp; comercial, logo após insere a célula</t>
+  </si>
+  <si>
+    <t>ex: "&gt;"&amp;F2</t>
+  </si>
+  <si>
+    <t>SomasSes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O somases é similar ao somase, porém ele pode ter mais </t>
+  </si>
+  <si>
+    <t>de um critério. E o intervalo de soma vem no início não ao</t>
+  </si>
+  <si>
+    <t>final, como é no somase</t>
+  </si>
+  <si>
+    <t>Fórmula: =SOMASES(Tabela3[VOLUME];Tabela3[LOJA];B7;Tabela3[CATEGORIA];C12;Tabela3[GÊNERO];C13)</t>
+  </si>
+  <si>
+    <t>Nesta fórmula realizamos a soma do volume das lojas de Araguari, que são da categoria comida e bebidas</t>
+  </si>
+  <si>
+    <t>e são do genero Masculino</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +171,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +205,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -290,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3972,22 +4043,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE7AE82-51F5-4D16-9E60-3E19A02134FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DE7AE82-51F5-4D16-9E60-3E19A02134FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4008,22 +4079,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DA07C8-8B10-478B-BE85-D361FA1DBDFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67DA07C8-8B10-478B-BE85-D361FA1DBDFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4064,7 +4135,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2744A8D-CC91-4B6C-AF46-EA705EAD053E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2744A8D-CC91-4B6C-AF46-EA705EAD053E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4102,7 +4173,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9952DB90-5107-4E0C-824E-1832D2AB9F31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9952DB90-5107-4E0C-824E-1832D2AB9F31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -50497,10 +50568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50612,6 +50683,72 @@
         <v>77743</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="30"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -50621,10 +50758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50759,16 +50896,51 @@
       <c r="D13" s="24"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <f>SUMIFS(Tabela3[VOLUME],Tabela3[LOJA],B7,Tabela3[CATEGORIA],C12,Tabela3[GÊNERO],C13)</f>
+        <v>744</v>
+      </c>
       <c r="C15"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
